--- a/src/main/resources/Transaction Rules.xlsx
+++ b/src/main/resources/Transaction Rules.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="295">
   <si>
     <t xml:space="preserve">Regex Rule</t>
   </si>
@@ -174,6 +174,12 @@
     <t xml:space="preserve">Returned Direct Debit</t>
   </si>
   <si>
+    <t xml:space="preserve">SPEARE SANDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Speare</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAVAN.*</t>
   </si>
   <si>
@@ -249,7 +255,7 @@
     <t xml:space="preserve">Days Out / Theme Park</t>
   </si>
   <si>
-    <t xml:space="preserve">AMAZON\* \d{3}-\d{6}|Amazon.co.uk\*.{5}|AMZNMKTPLACE|WWW.AMAZON\* \d{3}-\d{2}</t>
+    <t xml:space="preserve">AMAZON\* \d{3}-\d{6}|Amazon.co.uk\*.{5}|AMZNMKTPLACE|AMZNMktplace.*|WWW.AMAZON\* \d{3}-\d{2}</t>
   </si>
   <si>
     <t xml:space="preserve">Amazon</t>
@@ -264,18 +270,36 @@
     <t xml:space="preserve">Amazon Prime Video</t>
   </si>
   <si>
+    <t xml:space="preserve">Bills / Monthly Bills</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amazon Music\*.{5}</t>
   </si>
   <si>
     <t xml:space="preserve">Amazon Music Unlimited</t>
   </si>
   <si>
+    <t xml:space="preserve">ASHI GROUP LIMITED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anglian Windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing / Maintenance</t>
+  </si>
+  <si>
     <t xml:space="preserve">WWW.ARGOS.CO.UK</t>
   </si>
   <si>
     <t xml:space="preserve">Argos</t>
   </si>
   <si>
+    <t xml:space="preserve">ASDA SUPERSTORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asda</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASDA PETROL \d{4}</t>
   </si>
   <si>
@@ -321,6 +345,12 @@
     <t xml:space="preserve">Pets / Vets</t>
   </si>
   <si>
+    <t xml:space="preserve">STAGECOACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus</t>
+  </si>
+  <si>
     <t xml:space="preserve">BUXFER.COM</t>
   </si>
   <si>
@@ -333,7 +363,7 @@
     <t xml:space="preserve">Cash Point</t>
   </si>
   <si>
-    <t xml:space="preserve">CHELTENHAM BOROUGH|EURO CAR PARKS LTD|FGW CONNECT WEB|GLOUCESTER CITY CO|GLOUCESTER QUAYS P|GLOUCESTERSHIRE PA|PARKING SERVICES|RINGGO PARKING</t>
+    <t xml:space="preserve">CHELTENHAM BOROUGH|EURO CAR PARKS LTD|FGW CONNECT WEB|GLOUCESTER CITY CO|GLOUCESTER QUAYS P|GLOUCESTERSHIRE PA|PARKING SERVICES|RINGGO PARKING|GLOUCESTERSHIRE CO</t>
   </si>
   <si>
     <t xml:space="preserve">Car Parking</t>
@@ -393,9 +423,6 @@
     <t xml:space="preserve">GCC COUNCIL TAX</t>
   </si>
   <si>
-    <t xml:space="preserve">Bills / Council Tax, Bills / Monthly</t>
-  </si>
-  <si>
     <t xml:space="preserve">DRI\*CrashPlan|NON-GBP PURCH FEE|NON-GBP TRANS FEE</t>
   </si>
   <si>
@@ -417,6 +444,15 @@
     <t xml:space="preserve">Disney Plus</t>
   </si>
   <si>
+    <t xml:space="preserve">DOG HOUSE BARBERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dog House Barbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Health / Hair Dresser</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOMINO S PIZZA</t>
   </si>
   <si>
@@ -432,6 +468,12 @@
     <t xml:space="preserve">Automobile / Tax</t>
   </si>
   <si>
+    <t xml:space="preserve">E.ON NEXT LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eon Next</t>
+  </si>
+  <si>
     <t xml:space="preserve">FARMFOODS.*</t>
   </si>
   <si>
@@ -498,13 +540,25 @@
     <t xml:space="preserve">Greggs</t>
   </si>
   <si>
+    <t xml:space="preserve">REWARD ACCOUNT FEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halifax Daily Account Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fee</t>
+  </si>
+  <si>
     <t xml:space="preserve">DAILY OD INT.*</t>
   </si>
   <si>
-    <t xml:space="preserve">Halifax Daily Overdraft Interest </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fee</t>
+    <t xml:space="preserve">Halifax Daily Overdraft Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP CG SHOW MERCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton Merchandise</t>
   </si>
   <si>
     <t xml:space="preserve">HASTINGS INSURANCE</t>
@@ -525,7 +579,7 @@
     <t xml:space="preserve">Home Essentials</t>
   </si>
   <si>
-    <t xml:space="preserve">Just Eat|WWW.JUST-EAT.CO.UK</t>
+    <t xml:space="preserve">Just Eat|WWW.JUST-EAT.CO.UK|FoodHub</t>
   </si>
   <si>
     <t xml:space="preserve">Just Eat</t>
@@ -609,7 +663,10 @@
     <t xml:space="preserve">O2</t>
   </si>
   <si>
-    <t xml:space="preserve">Bills / Mobile Phone,Bills / Monthly Bills</t>
+    <t xml:space="preserve">OPTIMAL CHIROPRACT|WWW\.OPTIMALCHIRO\.C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Chiropractic &amp; Health</t>
   </si>
   <si>
     <t xml:space="preserve">PC Specialists</t>
@@ -654,7 +711,10 @@
     <t xml:space="preserve">Octopus Energy</t>
   </si>
   <si>
-    <t xml:space="preserve">Bills / Energy,Bills / Monthly Bills</t>
+    <t xml:space="preserve">SAINSBURYS PETROL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sainsburys Petrol</t>
   </si>
   <si>
     <t xml:space="preserve">CHRISTOPHER DAVIDS</t>
@@ -675,9 +735,6 @@
     <t xml:space="preserve">Severn Trent Water</t>
   </si>
   <si>
-    <t xml:space="preserve">Bills / Water,Bills / Monthly Bills</t>
-  </si>
-  <si>
     <t xml:space="preserve">SP SPACEGOODS</t>
   </si>
   <si>
@@ -696,9 +753,6 @@
     <t xml:space="preserve">SMOL (Washing / Dishwasher Tablets)</t>
   </si>
   <si>
-    <t xml:space="preserve">Bills / Subscriptions,Bills / Monthly Bills</t>
-  </si>
-  <si>
     <t xml:space="preserve">SURFSHARK\* SURFSHA</t>
   </si>
   <si>
@@ -795,9 +849,6 @@
     <t xml:space="preserve">TV Licence</t>
   </si>
   <si>
-    <t xml:space="preserve">Bills,Bills / Monthly Bills</t>
-  </si>
-  <si>
     <t xml:space="preserve">GOOGLE \*?YouTubePre\w?</t>
   </si>
   <si>
@@ -817,9 +868,6 @@
   </si>
   <si>
     <t xml:space="preserve">Virgin Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bills / Monthly Bills</t>
   </si>
   <si>
     <t xml:space="preserve">VICTORIA ANN SPEAR</t>
@@ -1301,10 +1349,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1407,15 +1455,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,6 +1471,17 @@
         <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1445,17 +1501,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="103.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,810 +1527,809 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>98</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>131</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>65</v>
+        <v>134</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>71</v>
+        <v>139</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>40</v>
+        <v>155</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>161</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>163</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>165</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>169</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>175</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>178</v>
+      <c r="A57" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>180</v>
+      <c r="A58" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>182</v>
+      <c r="A59" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>184</v>
+      <c r="A60" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>186</v>
+      <c r="A61" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>188</v>
+      <c r="A62" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>190</v>
+      <c r="A63" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>197</v>
+      <c r="A67" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>199</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>213</v>
+      <c r="A74" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>215</v>
+      <c r="A75" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C78" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>227</v>
       </c>
@@ -2282,242 +2337,338 @@
         <v>228</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C81" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>77</v>
+      <c r="C83" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>86</v>
+      <c r="C84" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>71</v>
+      <c r="C85" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="C91" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>257</v>
+      <c r="C93" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>65</v>
+        <v>256</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>268</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
         <v>278</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A52" r:id="rId1" display="Just Eat|WWW.JUST-EAT.CO.UK"/>
-    <hyperlink ref="A67" r:id="rId2" display="PETS AT HOME LTD|WWW.PETSATHOME.COM"/>
+    <hyperlink ref="A59" r:id="rId1" display="Just Eat|WWW.JUST-EAT.CO.UK|FoodHub"/>
+    <hyperlink ref="A75" r:id="rId2" display="PETS AT HOME LTD|WWW.PETSATHOME.COM"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
